--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9623583333333334</v>
+        <v>0.4214143333333333</v>
       </c>
       <c r="N2">
-        <v>2.887075</v>
+        <v>1.264243</v>
       </c>
       <c r="O2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="P2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="Q2">
-        <v>0.06858471212777778</v>
+        <v>0.03003307576511111</v>
       </c>
       <c r="R2">
-        <v>0.6172624091500001</v>
+        <v>0.270297681886</v>
       </c>
       <c r="S2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
       <c r="T2">
-        <v>0.05805926999654511</v>
+        <v>0.02434128610922473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,25 +617,25 @@
         <v>12.12890133333333</v>
       </c>
       <c r="N3">
-        <v>36.38670399999999</v>
+        <v>36.386704</v>
       </c>
       <c r="O3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="P3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
       <c r="Q3">
-        <v>0.8643944542897777</v>
+        <v>0.8643944542897778</v>
       </c>
       <c r="R3">
-        <v>7.779550088607999</v>
+        <v>7.779550088608</v>
       </c>
       <c r="S3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049885</v>
       </c>
       <c r="T3">
-        <v>0.7317390340813339</v>
+        <v>0.7005766871049887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.484187</v>
+        <v>4.762423333333333</v>
       </c>
       <c r="N4">
-        <v>10.452561</v>
+        <v>14.28727</v>
       </c>
       <c r="O4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="P4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="Q4">
-        <v>0.2483087163246667</v>
+        <v>0.3394052111711111</v>
       </c>
       <c r="R4">
-        <v>2.234778446922</v>
+        <v>3.05464690054</v>
       </c>
       <c r="S4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
       <c r="T4">
-        <v>0.210201695922121</v>
+        <v>0.2750820267857866</v>
       </c>
     </row>
   </sheetData>
